--- a/STM32资源使用情况.xlsx
+++ b/STM32资源使用情况.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85234\Desktop\UAS_Alpha1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85234\Desktop\Github\Eastello\UAS_Alpha1.3.bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECE708F-FDAF-4CAF-ADC3-872733607165}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D72379-B1FD-4968-AD8F-1E01B8E2D1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,12 +448,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -468,21 +480,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,14 +503,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,21 +806,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.9140625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.4140625" customWidth="1"/>
-    <col min="5" max="5" width="12.4140625" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -810,337 +834,337 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="11"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1153,8 +1177,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1165,8 +1189,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1177,8 +1201,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>61</v>
       </c>
@@ -1189,8 +1213,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -1201,57 +1225,50 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>12345678</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D18:D19"/>
@@ -1264,9 +1281,16 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
